--- a/tools.xlsx
+++ b/tools.xlsx
@@ -1415,7 +1415,7 @@
     <t>Sarcophagus</t>
   </si>
   <si>
-    <t>Sarcophagus — это проект со 100% открытым исходным кодом, использующий Unlicense . Он был создан глобальной командой разработчиков программного обеспечения, криптоэнтузиастов и экспертов по безопасности. Он еще не прошел аудит; Используйте на свой риск.</t>
+    <t>Sarcophagus is a 100% open source project using Unlicense . It was created by a global team of software developers, crypto-enthusiasts and security experts.</t>
   </si>
   <si>
     <t>https://sarcophagus.io</t>
@@ -2088,7 +2088,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2182,14 +2182,6 @@
       <name val="System-ui"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-    </font>
-    <font/>
-    <font>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF3F51B5"/>
@@ -2259,7 +2251,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2383,31 +2375,10 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -5052,10 +5023,10 @@
       <c r="A143" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="B143" s="41" t="s">
+      <c r="B143" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="C143" s="42" t="s">
+      <c r="C143" s="15" t="s">
         <v>609</v>
       </c>
       <c r="D143" s="13" t="s">
@@ -5066,13 +5037,13 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="42" t="s">
+      <c r="A144" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="B144" s="42" t="s">
+      <c r="B144" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="C144" s="42" t="s">
+      <c r="C144" s="15" t="s">
         <v>614</v>
       </c>
       <c r="D144" s="13" t="s">
@@ -5083,13 +5054,13 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="42" t="s">
+      <c r="A145" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="B145" s="42" t="s">
+      <c r="B145" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="C145" s="42" t="s">
+      <c r="C145" s="15" t="s">
         <v>619</v>
       </c>
       <c r="D145" s="13" t="s">
@@ -5100,13 +5071,13 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="42" t="s">
+      <c r="A146" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B146" s="42" t="s">
+      <c r="B146" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="C146" s="42" t="s">
+      <c r="C146" s="15" t="s">
         <v>623</v>
       </c>
       <c r="D146" s="13" t="s">
@@ -5117,13 +5088,13 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="42" t="s">
+      <c r="A147" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="B147" s="42" t="s">
+      <c r="B147" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="C147" s="42" t="s">
+      <c r="C147" s="15" t="s">
         <v>627</v>
       </c>
       <c r="D147" s="13" t="s">
@@ -5137,27 +5108,27 @@
       <c r="A148" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="B148" s="42" t="s">
+      <c r="B148" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="C148" s="42" t="s">
+      <c r="C148" s="15" t="s">
         <v>632</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="E148" s="43" t="s">
+      <c r="E148" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="42" t="s">
+      <c r="A149" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="B149" s="42" t="s">
+      <c r="B149" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="C149" s="42" t="s">
+      <c r="C149" s="15" t="s">
         <v>636</v>
       </c>
       <c r="D149" s="13" t="s">
@@ -5171,10 +5142,10 @@
       <c r="A150" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="B150" s="42" t="s">
+      <c r="B150" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="C150" s="42" t="s">
+      <c r="C150" s="15" t="s">
         <v>639</v>
       </c>
       <c r="D150" s="13" t="s">
@@ -5188,10 +5159,10 @@
       <c r="A151" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="B151" s="42" t="s">
+      <c r="B151" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="C151" s="42" t="s">
+      <c r="C151" s="15" t="s">
         <v>643</v>
       </c>
       <c r="D151" s="13" t="s">
@@ -5202,13 +5173,13 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="42" t="s">
+      <c r="A152" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="B152" s="42" t="s">
+      <c r="B152" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="C152" s="42" t="s">
+      <c r="C152" s="15" t="s">
         <v>648</v>
       </c>
       <c r="D152" s="13" t="s">
@@ -5219,13 +5190,13 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="42" t="s">
+      <c r="A153" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="B153" s="42" t="s">
+      <c r="B153" s="15" t="s">
         <v>652</v>
       </c>
-      <c r="C153" s="42" t="s">
+      <c r="C153" s="15" t="s">
         <v>653</v>
       </c>
       <c r="D153" s="13" t="s">
@@ -5239,10 +5210,10 @@
       <c r="A154" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B154" s="42" t="s">
+      <c r="B154" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="C154" s="42" t="s">
+      <c r="C154" s="15" t="s">
         <v>656</v>
       </c>
       <c r="D154" s="13" t="s">
@@ -5253,13 +5224,13 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="42" t="s">
+      <c r="A155" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="B155" s="42" t="s">
+      <c r="B155" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C155" s="42" t="s">
+      <c r="C155" s="15" t="s">
         <v>659</v>
       </c>
       <c r="D155" s="13" t="s">
@@ -5270,13 +5241,13 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="42" t="s">
+      <c r="A156" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="B156" s="42" t="s">
+      <c r="B156" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="42" t="s">
+      <c r="C156" s="15" t="s">
         <v>663</v>
       </c>
       <c r="D156" s="13" t="s">
@@ -5287,13 +5258,13 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="44" t="s">
+      <c r="A157" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="B157" s="44" t="s">
+      <c r="B157" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C157" s="45" t="s">
+      <c r="C157" s="26" t="s">
         <v>667</v>
       </c>
       <c r="D157" s="25" t="s">
@@ -5304,13 +5275,13 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="44" t="s">
+      <c r="A158" s="23" t="s">
         <v>670</v>
       </c>
-      <c r="B158" s="44" t="s">
+      <c r="B158" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C158" s="45" t="s">
+      <c r="C158" s="26" t="s">
         <v>671</v>
       </c>
       <c r="D158" s="25" t="s">
@@ -5321,13 +5292,13 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="44" t="s">
+      <c r="A159" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="B159" s="44" t="s">
+      <c r="B159" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C159" s="46" t="s">
+      <c r="C159" s="24" t="s">
         <v>362</v>
       </c>
       <c r="D159" s="25" t="s">
@@ -5338,13 +5309,13 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="44" t="s">
+      <c r="A160" s="23" t="s">
         <v>674</v>
       </c>
-      <c r="B160" s="44" t="s">
+      <c r="B160" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C160" s="45" t="s">
+      <c r="C160" s="26" t="s">
         <v>675</v>
       </c>
       <c r="D160" s="25" t="s">
@@ -5355,13 +5326,13 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="44" t="s">
+      <c r="A161" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="B161" s="44" t="s">
+      <c r="B161" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="C161" s="44" t="s">
+      <c r="C161" s="23" t="s">
         <v>679</v>
       </c>
       <c r="D161" s="25" t="s">
@@ -5372,13 +5343,13 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="44" t="s">
+      <c r="A162" s="23" t="s">
         <v>682</v>
       </c>
-      <c r="B162" s="47" t="s">
+      <c r="B162" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="C162" s="45" t="s">
+      <c r="C162" s="26" t="s">
         <v>683</v>
       </c>
       <c r="D162" s="27" t="s">
@@ -5389,13 +5360,13 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="44" t="s">
+      <c r="A163" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="B163" s="44" t="s">
+      <c r="B163" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="C163" s="45" t="s">
+      <c r="C163" s="26" t="s">
         <v>687</v>
       </c>
       <c r="D163" s="25" t="s">
@@ -5406,261 +5377,261 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="48"/>
-      <c r="B164" s="48"/>
-      <c r="C164" s="48"/>
+      <c r="A164" s="41"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="41"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
     </row>
     <row r="165">
-      <c r="A165" s="48"/>
-      <c r="B165" s="48"/>
-      <c r="C165" s="48"/>
+      <c r="A165" s="41"/>
+      <c r="B165" s="41"/>
+      <c r="C165" s="41"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
     </row>
     <row r="166">
-      <c r="A166" s="48"/>
-      <c r="B166" s="48"/>
-      <c r="C166" s="48"/>
+      <c r="A166" s="41"/>
+      <c r="B166" s="41"/>
+      <c r="C166" s="41"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
     </row>
     <row r="167">
-      <c r="A167" s="48"/>
-      <c r="B167" s="48"/>
-      <c r="C167" s="48"/>
+      <c r="A167" s="41"/>
+      <c r="B167" s="41"/>
+      <c r="C167" s="41"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="48"/>
-      <c r="B168" s="48"/>
-      <c r="C168" s="48"/>
+      <c r="A168" s="41"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="41"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
     </row>
     <row r="169">
-      <c r="A169" s="48"/>
-      <c r="B169" s="48"/>
-      <c r="C169" s="48"/>
+      <c r="A169" s="41"/>
+      <c r="B169" s="41"/>
+      <c r="C169" s="41"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="48"/>
-      <c r="B170" s="48"/>
-      <c r="C170" s="48"/>
+      <c r="A170" s="41"/>
+      <c r="B170" s="41"/>
+      <c r="C170" s="41"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="48"/>
-      <c r="B171" s="48"/>
-      <c r="C171" s="48"/>
+      <c r="A171" s="41"/>
+      <c r="B171" s="41"/>
+      <c r="C171" s="41"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="48"/>
-      <c r="B172" s="48"/>
-      <c r="C172" s="48"/>
+      <c r="A172" s="41"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="41"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="48"/>
-      <c r="B173" s="48"/>
-      <c r="C173" s="48"/>
+      <c r="A173" s="41"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="41"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="48"/>
-      <c r="B174" s="48"/>
-      <c r="C174" s="48"/>
+      <c r="A174" s="41"/>
+      <c r="B174" s="41"/>
+      <c r="C174" s="41"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="48"/>
-      <c r="B175" s="48"/>
-      <c r="C175" s="48"/>
+      <c r="A175" s="41"/>
+      <c r="B175" s="41"/>
+      <c r="C175" s="41"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="48"/>
-      <c r="B176" s="48"/>
-      <c r="C176" s="48"/>
+      <c r="A176" s="41"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="41"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="48"/>
-      <c r="B177" s="48"/>
-      <c r="C177" s="48"/>
+      <c r="A177" s="41"/>
+      <c r="B177" s="41"/>
+      <c r="C177" s="41"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="48"/>
-      <c r="B178" s="48"/>
-      <c r="C178" s="48"/>
+      <c r="A178" s="41"/>
+      <c r="B178" s="41"/>
+      <c r="C178" s="41"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
     </row>
     <row r="179">
-      <c r="A179" s="48"/>
-      <c r="B179" s="48"/>
-      <c r="C179" s="48"/>
+      <c r="A179" s="41"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="41"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="48"/>
-      <c r="B180" s="48"/>
-      <c r="C180" s="48"/>
+      <c r="A180" s="41"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="41"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="48"/>
-      <c r="B181" s="48"/>
-      <c r="C181" s="48"/>
+      <c r="A181" s="41"/>
+      <c r="B181" s="41"/>
+      <c r="C181" s="41"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="48"/>
-      <c r="B182" s="48"/>
-      <c r="C182" s="48"/>
+      <c r="A182" s="41"/>
+      <c r="B182" s="41"/>
+      <c r="C182" s="41"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
     </row>
     <row r="183">
-      <c r="A183" s="48"/>
-      <c r="B183" s="48"/>
-      <c r="C183" s="48"/>
+      <c r="A183" s="41"/>
+      <c r="B183" s="41"/>
+      <c r="C183" s="41"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="48"/>
-      <c r="B184" s="48"/>
-      <c r="C184" s="48"/>
+      <c r="A184" s="41"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="41"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="48"/>
-      <c r="B185" s="48"/>
-      <c r="C185" s="48"/>
+      <c r="A185" s="41"/>
+      <c r="B185" s="41"/>
+      <c r="C185" s="41"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
     </row>
     <row r="186">
-      <c r="A186" s="48"/>
-      <c r="B186" s="48"/>
-      <c r="C186" s="48"/>
+      <c r="A186" s="41"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="41"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="48"/>
-      <c r="B187" s="48"/>
-      <c r="C187" s="49"/>
+      <c r="A187" s="41"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="42"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="48"/>
-      <c r="B188" s="48"/>
-      <c r="C188" s="48"/>
+      <c r="A188" s="41"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="41"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="48"/>
-      <c r="B189" s="48"/>
-      <c r="C189" s="48"/>
+      <c r="A189" s="41"/>
+      <c r="B189" s="41"/>
+      <c r="C189" s="41"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="48"/>
-      <c r="B190" s="48"/>
-      <c r="C190" s="48"/>
+      <c r="A190" s="41"/>
+      <c r="B190" s="41"/>
+      <c r="C190" s="41"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
     </row>
     <row r="191">
-      <c r="A191" s="48"/>
-      <c r="B191" s="48"/>
-      <c r="C191" s="48"/>
+      <c r="A191" s="41"/>
+      <c r="B191" s="41"/>
+      <c r="C191" s="41"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="48"/>
-      <c r="B192" s="48"/>
-      <c r="C192" s="48"/>
+      <c r="A192" s="41"/>
+      <c r="B192" s="41"/>
+      <c r="C192" s="41"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
     </row>
     <row r="193">
-      <c r="A193" s="48"/>
-      <c r="B193" s="48"/>
-      <c r="C193" s="48"/>
+      <c r="A193" s="41"/>
+      <c r="B193" s="41"/>
+      <c r="C193" s="41"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
     </row>
     <row r="194">
-      <c r="A194" s="48"/>
-      <c r="B194" s="48"/>
-      <c r="C194" s="48"/>
+      <c r="A194" s="41"/>
+      <c r="B194" s="41"/>
+      <c r="C194" s="41"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
     </row>
     <row r="195">
-      <c r="A195" s="48"/>
-      <c r="B195" s="48"/>
-      <c r="C195" s="48"/>
+      <c r="A195" s="41"/>
+      <c r="B195" s="41"/>
+      <c r="C195" s="41"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="48"/>
-      <c r="B196" s="48"/>
-      <c r="C196" s="48"/>
+      <c r="A196" s="41"/>
+      <c r="B196" s="41"/>
+      <c r="C196" s="41"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="48"/>
-      <c r="B197" s="48"/>
-      <c r="C197" s="48"/>
+      <c r="A197" s="41"/>
+      <c r="B197" s="41"/>
+      <c r="C197" s="41"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
     </row>
     <row r="198">
-      <c r="A198" s="48"/>
-      <c r="B198" s="48"/>
-      <c r="C198" s="48"/>
+      <c r="A198" s="41"/>
+      <c r="B198" s="41"/>
+      <c r="C198" s="41"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
     </row>
     <row r="199">
-      <c r="A199" s="48"/>
-      <c r="B199" s="48"/>
-      <c r="C199" s="48"/>
+      <c r="A199" s="41"/>
+      <c r="B199" s="41"/>
+      <c r="C199" s="41"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="48"/>
-      <c r="B200" s="48"/>
-      <c r="C200" s="48"/>
+      <c r="A200" s="41"/>
+      <c r="B200" s="41"/>
+      <c r="C200" s="41"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
     </row>
